--- a/pred_ohlcv/54_21/2019-10-06 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 ZIL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1937699.702258845</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1898376.032158845</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1995542.557758845</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2136610.383858845</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2155946.975158845</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1803562.677058845</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1592218.897458845</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1629232.523258845</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1971305.444658846</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2204687.214658846</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2167649.487658846</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2167649.487658846</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2564726.269069755</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3439900.262291446</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3740020.262291446</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3739940.262291446</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3395610.975691446</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3467378.10437943</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3534700.055218858</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4063479.98794549</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4406054.23494549</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4402133.10504549</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4434608.71354549</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4507682.96734549</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4852365.362945491</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>6730240.378857784</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>6730218.378857784</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>6942580.502875541</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>8643873.196053723</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8231794.423053723</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>7813569.395799669</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>7694948.176678948</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>7998765.540378948</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8085817.192078948</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>8085817.192078948</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>7867622.032278948</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>7867622.032278948</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>7867622.032278948</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>7920574.994786425</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>7808747.961986425</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>8091920.036663995</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>8082955.036663995</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>7952674.339154736</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>8048141.928154736</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>8121902.508954736</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>7799253.748654736</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>7826091.654954736</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>7752727.074154736</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>8000783.975554735</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>8000783.975554735</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>8061889.568854735</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>8061889.568854735</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>8074540.368854735</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>8064273.732954735</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>8036489.926654735</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>8036489.926654735</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>7790670.003054734</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>7761348.705654735</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>8067691.214454735</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>8067691.214454735</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>8067691.214454735</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>3864314.579098036</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>3864314.579098036</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>3864354.579098036</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4406805.308798036</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4406815.308798036</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4406805.308798036</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4506055.006198036</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4367131.924498036</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>4281798.716798035</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>4273899.867198035</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>4273869.867198035</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>4273869.867198035</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>4214180.612998035</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>4258437.352098035</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>4258427.352098035</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>4258427.352098035</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>4571161.728798035</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>4571120.728798035</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>4615908.026898035</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>4633907.026898035</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>5109933.989798035</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>5217068.898098035</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>5233848.738698035</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>5233848.738698035</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>5233824.950698035</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>4748271.037198035</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>4899227.555098035</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>4899018.555098035</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>4900224.555098035</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>4900114.555098035</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>4899987.555098035</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>4833483.430798035</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>4864356.958498036</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>4864346.958498036</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>4824295.592398035</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>4847304.592398035</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>4852303.592398035</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>4839231.592398035</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>4838964.592398035</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>4867467.755998035</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>4867767.755998035</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>4867460.755998035</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>4768784.683498035</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>4768784.683498035</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>4743532.737598035</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4793072.851498036</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>4793072.851498036</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4793072.851498036</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4791628.851498036</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4387661.745598036</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>4186730.156198036</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>4186730.156198036</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>4250018.197198036</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>4330241.697198036</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>4372987.457698036</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>4372987.457698036</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>4372977.457698036</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>4405403.730498036</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>4490253.295098037</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>4624237.595998037</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>4736127.519698037</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>4736160.519698037</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>4736160.519698037</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>4736160.519698037</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>4736160.519698037</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>4736715.519698037</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>4736715.519698037</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>4736715.519698037</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>4275430.491498037</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>4275441.491498037</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>4275421.491498037</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>4056191.066398037</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>4056191.066398037</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>4056191.066398037</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>3926191.066398037</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>3596074.491098037</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>3636089.334098037</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>3688111.356698037</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>3802520.856698037</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3729566.449198036</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>3729566.449198036</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3729566.449198036</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3694481.538298036</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3694406.538298036</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>4071272.564798037</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>4416549.461598037</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4213329.099998036</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4213632.099998036</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>4213764.099998036</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4213570.099998036</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4213622.099998036</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4213645.099998036</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3772697.850398037</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3968365.931698037</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3968365.931698037</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3968365.931698037</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3908405.679298037</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3937885.264098037</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3937863.264098037</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3987684.682998037</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3991010.813798036</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>3991010.813798036</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3991035.813798036</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3991035.813798036</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>4495688.647398036</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>4238765.034998036</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>4305278.437998036</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>4305278.437998036</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>4863096.637298036</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>5337464.866898037</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>5337464.866898037</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>5140588.456798037</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>5056189.539098036</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>5263555.638698037</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>4822076.088498037</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>4822196.088498037</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>4832708.510911831</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>4832622.510911831</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>4723598.21501183</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>4837827.03381183</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>4889460.06821183</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>4883261.97441183</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>4883272.97441183</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>4883272.97441183</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>4805950.170011831</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>4805950.170011831</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>4802552.087111831</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>4676273.140311831</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>4636222.279311831</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>4370950.357811831</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>4422309.016811831</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>4268582.769211831</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>4268582.769211831</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>4268582.769211831</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>4268582.769211831</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>4268582.769211831</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>4252368.97441183</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>4232643.85721183</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>4309461.085011831</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>4296560.58131183</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>4164261.95091183</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>4209150.968811831</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>4204366.43881183</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3953149.93831183</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>3925340.60901183</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>3990829.74771183</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>4792158.02001183</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>4791138.02001183</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>4586392.06071183</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>4668199.96141183</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>4668189.96141183</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>4673640.11521183</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>4673745.11521183</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>4683584.13771183</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>4683584.13771183</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>4683574.13771183</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>4683647.77011183</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>4683617.77011183</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>4683627.77011183</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>4628250.56751183</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>4603134.932211829</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>4542628.177311829</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>4542628.177311829</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>4582409.01431183</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>4582329.01431183</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>4582168.688311829</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>4594218.688311829</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>4579127.163911829</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>4608249.587411828</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>4608239.587411828</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>4595983.148511828</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>4587168.587411828</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>4599466.235711828</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>4629563.352611828</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>4620337.469011827</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>4502851.131011827</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>4500146.012111827</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>4476479.199011827</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>4493970.854711827</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>4452806.817911827</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>4452806.817911827</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>4034691.190311827</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>3155139.856411827</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>3180395.309911827</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>3180385.309911827</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>3175909.491211826</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>3150643.745711826</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>2844516.177911826</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>2897326.177911826</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>2975569.464511827</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>3004569.464511827</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>3153714.641811827</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>3136800.302211827</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>3053135.118811827</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>3056406.993811827</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>3050332.865211827</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>3074780.667511827</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>3131311.216411827</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>3096454.432711827</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>3096454.432711827</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>3096189.469511827</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>3090301.136211826</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>3090149.971111827</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>3090083.971111827</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>3092657.970411826</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>3092384.969711826</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>3092384.969711826</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>3092384.969711826</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>3092111.918311826</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>3091941.918311826</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-06 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 ZIL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1937699.702258845</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1898376.032158845</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1995542.557758845</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2136610.383858845</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2155946.975158845</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1803562.677058845</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1592218.897458845</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1592218.897458845</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1606579.728558845</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1609189.151958845</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1707223.465658845</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1971305.444658846</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2204687.214658846</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2167649.487658846</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2167649.487658846</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2564726.269069755</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2557147.339769755</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3030555.928858846</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3678191.230191446</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>6730240.378857784</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>6942580.502875541</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>8643873.196053723</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8231794.423053723</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>7813569.395799669</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>7694948.176678948</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>7998765.540378948</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8085817.192078948</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>8085817.192078948</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>7867622.032278948</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>7867622.032278948</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>7808747.961986425</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>8091920.036663995</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>7994571.125963995</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>8048141.928154736</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8179766.584254736</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>8121902.508954736</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>7799253.748654736</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>7826091.654954736</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>7752727.074154736</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>8000783.975554735</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>8000783.975554735</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>8061889.568854735</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>8061889.568854735</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>8074540.368854735</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>8064273.732954735</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>8036489.926654735</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>8036489.926654735</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>7790670.003054734</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
